--- a/data/wages.xlsx
+++ b/data/wages.xlsx
@@ -1,65 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\McLean Capital Dropbox\Ian McLean\_Website + data + articles\___Real CPI website\_Data\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{738EC90A-697A-45ED-B1F1-BB5AF840EB2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Data" sheetId="1" r:id="rId1"/>
+    <sheet name="Data" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <definedNames/>
+  <calcPr calcId="191029" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
-  <si>
-    <t>Date</t>
-  </si>
-  <si>
-    <t>Value</t>
-  </si>
-  <si>
-    <t>% Change vs Last Year</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -78,27 +46,86 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -418,266 +445,291 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col width="9.85546875" bestFit="1" customWidth="1" min="1" max="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Date</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Value</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>% Change vs Last Year</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>2025-05-01</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>36.24</v>
+      </c>
+      <c r="C2" t="n">
+        <v>3.87</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
         <v>45748</v>
       </c>
-      <c r="B2" s="2">
-        <v>36.090000000000003</v>
-      </c>
-      <c r="C2">
-        <f t="shared" ref="C2:C13" si="0">(B2/B14-1)*100</f>
-        <v>3.8561151079136824</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
+      <c r="B3" s="2" t="n">
+        <v>36.09</v>
+      </c>
+      <c r="C3" t="n">
+        <v>3.86</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
         <v>45717</v>
       </c>
-      <c r="B3" s="2">
-        <v>36.020000000000003</v>
-      </c>
-      <c r="C3">
-        <f t="shared" si="0"/>
-        <v>3.8938563599653975</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
+      <c r="B4" s="2" t="n">
+        <v>36.02</v>
+      </c>
+      <c r="C4" t="n">
+        <v>3.89</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
         <v>45689</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B5" s="2" t="n">
         <v>35.9</v>
       </c>
-      <c r="C4">
-        <f t="shared" si="0"/>
-        <v>3.9374638100752701</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
+      <c r="C5" t="n">
+        <v>3.94</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
         <v>45658</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B6" s="2" t="n">
         <v>35.83</v>
       </c>
-      <c r="C5">
-        <f t="shared" si="0"/>
-        <v>3.9454598201334568</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
+      <c r="C6" t="n">
+        <v>3.95</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
         <v>45627</v>
       </c>
-      <c r="B6" s="2">
+      <c r="B7" s="2" t="n">
         <v>35.68</v>
       </c>
-      <c r="C6">
-        <f t="shared" si="0"/>
-        <v>3.9930049548236646</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
+      <c r="C7" t="n">
+        <v>3.99</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
         <v>45597</v>
       </c>
-      <c r="B7" s="2">
+      <c r="B8" s="2" t="n">
         <v>35.61</v>
       </c>
-      <c r="C7">
-        <f t="shared" si="0"/>
-        <v>4.153261187481716</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
+      <c r="C8" t="n">
+        <v>4.15</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
         <v>45566</v>
       </c>
-      <c r="B8" s="2">
-        <v>35.479999999999997</v>
-      </c>
-      <c r="C8">
-        <f t="shared" si="0"/>
-        <v>4.1385383034928003</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
+      <c r="B9" s="2" t="n">
+        <v>35.48</v>
+      </c>
+      <c r="C9" t="n">
+        <v>4.14</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
         <v>45536</v>
       </c>
-      <c r="B9" s="2">
+      <c r="B10" s="2" t="n">
         <v>35.33</v>
       </c>
-      <c r="C9">
-        <f t="shared" si="0"/>
-        <v>3.9423359811709302</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
+      <c r="C10" t="n">
+        <v>3.94</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
         <v>45505</v>
       </c>
-      <c r="B10" s="2">
-        <v>35.229999999999997</v>
-      </c>
-      <c r="C10">
-        <f t="shared" si="0"/>
-        <v>3.9539687223369535</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="1">
+      <c r="B11" s="2" t="n">
+        <v>35.23</v>
+      </c>
+      <c r="C11" t="n">
+        <v>3.95</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
         <v>45474</v>
       </c>
-      <c r="B11" s="2">
+      <c r="B12" s="2" t="n">
         <v>35.07</v>
       </c>
-      <c r="C11">
-        <f t="shared" si="0"/>
-        <v>3.6347517730496381</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="1">
+      <c r="C12" t="n">
+        <v>3.63</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
         <v>45444</v>
       </c>
-      <c r="B12" s="2">
+      <c r="B13" s="2" t="n">
         <v>35</v>
       </c>
-      <c r="C12">
-        <f t="shared" si="0"/>
-        <v>3.8883941822499324</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="1">
+      <c r="C13" t="n">
+        <v>3.89</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
         <v>45413</v>
       </c>
-      <c r="B13" s="2">
+      <c r="B14" s="2" t="n">
         <v>34.89</v>
       </c>
-      <c r="C13">
-        <f t="shared" si="0"/>
-        <v>4.0871121718377035</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="1">
+      <c r="C14" t="n">
+        <v>4.09</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
         <v>45383</v>
       </c>
-      <c r="B14" s="2">
+      <c r="B15" s="2" t="n">
         <v>34.75</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="1">
+      <c r="C15" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
         <v>45352</v>
       </c>
-      <c r="B15" s="2">
+      <c r="B16" s="2" t="n">
         <v>34.67</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="1">
+      <c r="C16" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
         <v>45323</v>
       </c>
-      <c r="B16" s="2">
+      <c r="B17" s="2" t="n">
         <v>34.54</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="1">
+      <c r="C17" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
         <v>45292</v>
       </c>
-      <c r="B17" s="2">
+      <c r="B18" s="2" t="n">
         <v>34.47</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="1">
+      <c r="C18" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
         <v>45261</v>
       </c>
-      <c r="B18" s="2">
+      <c r="B19" s="2" t="n">
         <v>34.31</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="1">
+      <c r="C19" t="inlineStr"/>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
         <v>45231</v>
       </c>
-      <c r="B19" s="2">
+      <c r="B20" s="2" t="n">
         <v>34.19</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="1">
+      <c r="C20" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
         <v>45200</v>
       </c>
-      <c r="B20" s="2">
+      <c r="B21" s="2" t="n">
         <v>34.07</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="1">
+      <c r="C21" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
         <v>45170</v>
       </c>
-      <c r="B21" s="2">
+      <c r="B22" s="2" t="n">
         <v>33.99</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="1">
+      <c r="C22" t="inlineStr"/>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
         <v>45139</v>
       </c>
-      <c r="B22" s="2">
+      <c r="B23" s="2" t="n">
         <v>33.89</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="1">
+      <c r="C23" t="inlineStr"/>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
         <v>45108</v>
       </c>
-      <c r="B23" s="2">
-        <v>33.840000000000003</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" s="1">
+      <c r="B24" s="2" t="n">
+        <v>33.84</v>
+      </c>
+      <c r="C24" t="inlineStr"/>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
         <v>45078</v>
       </c>
-      <c r="B24" s="2">
+      <c r="B25" s="2" t="n">
         <v>33.69</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" s="1">
+      <c r="C25" t="inlineStr"/>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
         <v>45047</v>
       </c>
-      <c r="B25" s="2">
-        <v>33.520000000000003</v>
-      </c>
+      <c r="B26" s="2" t="n">
+        <v>33.52</v>
+      </c>
+      <c r="C26" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/wages.xlsx
+++ b/data/wages.xlsx
@@ -450,7 +450,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C26"/>
+  <dimension ref="A1:C27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -481,255 +481,268 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>2025-06-01</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>36.3</v>
+      </c>
+      <c r="C2" t="n">
+        <v>3.71</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
           <t>2025-05-01</t>
         </is>
       </c>
-      <c r="B2" t="n">
+      <c r="B3" t="n">
         <v>36.24</v>
       </c>
-      <c r="C2" t="n">
+      <c r="C3" t="n">
         <v>3.87</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>45748</v>
-      </c>
-      <c r="B3" s="2" t="n">
-        <v>36.09</v>
-      </c>
-      <c r="C3" t="n">
-        <v>3.86</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>45717</v>
+        <v>45748</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>36.02</v>
+        <v>36.09</v>
       </c>
       <c r="C4" t="n">
-        <v>3.89</v>
+        <v>3.86</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>45689</v>
+        <v>45717</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>35.9</v>
+        <v>36.02</v>
       </c>
       <c r="C5" t="n">
-        <v>3.94</v>
+        <v>3.89</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>45658</v>
+        <v>45689</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>35.83</v>
+        <v>35.9</v>
       </c>
       <c r="C6" t="n">
-        <v>3.95</v>
+        <v>3.94</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>45627</v>
+        <v>45658</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>35.68</v>
+        <v>35.83</v>
       </c>
       <c r="C7" t="n">
-        <v>3.99</v>
+        <v>3.95</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>45597</v>
+        <v>45627</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>35.61</v>
+        <v>35.68</v>
       </c>
       <c r="C8" t="n">
-        <v>4.15</v>
+        <v>3.99</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>45566</v>
+        <v>45597</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>35.48</v>
+        <v>35.61</v>
       </c>
       <c r="C9" t="n">
-        <v>4.14</v>
+        <v>4.15</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>45536</v>
+        <v>45566</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>35.33</v>
+        <v>35.48</v>
       </c>
       <c r="C10" t="n">
-        <v>3.94</v>
+        <v>4.14</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>45505</v>
+        <v>45536</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>35.23</v>
+        <v>35.33</v>
       </c>
       <c r="C11" t="n">
-        <v>3.95</v>
+        <v>3.94</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>45474</v>
+        <v>45505</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>35.07</v>
+        <v>35.23</v>
       </c>
       <c r="C12" t="n">
-        <v>3.63</v>
+        <v>3.95</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>45444</v>
+        <v>45474</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>35</v>
+        <v>35.07</v>
       </c>
       <c r="C13" t="n">
-        <v>3.89</v>
+        <v>3.63</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>45413</v>
+        <v>45444</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>34.89</v>
+        <v>35</v>
       </c>
       <c r="C14" t="n">
-        <v>4.09</v>
+        <v>3.89</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>45383</v>
+        <v>45413</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>34.75</v>
-      </c>
-      <c r="C15" t="inlineStr"/>
+        <v>34.89</v>
+      </c>
+      <c r="C15" t="n">
+        <v>4.09</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>45352</v>
+        <v>45383</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>34.67</v>
+        <v>34.75</v>
       </c>
       <c r="C16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>45323</v>
+        <v>45352</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>34.54</v>
+        <v>34.67</v>
       </c>
       <c r="C17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>45292</v>
+        <v>45323</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>34.47</v>
+        <v>34.54</v>
       </c>
       <c r="C18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>45261</v>
+        <v>45292</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>34.31</v>
+        <v>34.47</v>
       </c>
       <c r="C19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>45231</v>
+        <v>45261</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>34.19</v>
+        <v>34.31</v>
       </c>
       <c r="C20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>45200</v>
+        <v>45231</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>34.07</v>
+        <v>34.19</v>
       </c>
       <c r="C21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>45170</v>
+        <v>45200</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>33.99</v>
+        <v>34.07</v>
       </c>
       <c r="C22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>45139</v>
+        <v>45170</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>33.89</v>
+        <v>33.99</v>
       </c>
       <c r="C23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>45108</v>
+        <v>45139</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>33.84</v>
+        <v>33.89</v>
       </c>
       <c r="C24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>45078</v>
+        <v>45108</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>33.69</v>
+        <v>33.84</v>
       </c>
       <c r="C25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
+        <v>45078</v>
+      </c>
+      <c r="B26" s="2" t="n">
+        <v>33.69</v>
+      </c>
+      <c r="C26" t="inlineStr"/>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
         <v>45047</v>
       </c>
-      <c r="B26" s="2" t="n">
+      <c r="B27" s="2" t="n">
         <v>33.52</v>
       </c>
-      <c r="C26" t="inlineStr"/>
+      <c r="C27" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/wages.xlsx
+++ b/data/wages.xlsx
@@ -450,7 +450,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C27"/>
+  <dimension ref="A1:C28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -481,268 +481,281 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2025-06-01</t>
+          <t>2025-07-01</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>36.3</v>
+        <v>36.44</v>
       </c>
       <c r="C2" t="n">
-        <v>3.71</v>
+        <v>3.91</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
+          <t>2025-06-01</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>36.3</v>
+      </c>
+      <c r="C3" t="n">
+        <v>3.71</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
           <t>2025-05-01</t>
         </is>
       </c>
-      <c r="B3" t="n">
+      <c r="B4" t="n">
         <v>36.24</v>
       </c>
-      <c r="C3" t="n">
+      <c r="C4" t="n">
         <v>3.87</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>45748</v>
-      </c>
-      <c r="B4" s="2" t="n">
-        <v>36.09</v>
-      </c>
-      <c r="C4" t="n">
-        <v>3.86</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>45717</v>
+        <v>45748</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>36.02</v>
+        <v>36.09</v>
       </c>
       <c r="C5" t="n">
-        <v>3.89</v>
+        <v>3.86</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>45689</v>
+        <v>45717</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>35.9</v>
+        <v>36.02</v>
       </c>
       <c r="C6" t="n">
-        <v>3.94</v>
+        <v>3.89</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>45658</v>
+        <v>45689</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>35.83</v>
+        <v>35.9</v>
       </c>
       <c r="C7" t="n">
-        <v>3.95</v>
+        <v>3.94</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>45627</v>
+        <v>45658</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>35.68</v>
+        <v>35.83</v>
       </c>
       <c r="C8" t="n">
-        <v>3.99</v>
+        <v>3.95</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>45597</v>
+        <v>45627</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>35.61</v>
+        <v>35.68</v>
       </c>
       <c r="C9" t="n">
-        <v>4.15</v>
+        <v>3.99</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>45566</v>
+        <v>45597</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>35.48</v>
+        <v>35.61</v>
       </c>
       <c r="C10" t="n">
-        <v>4.14</v>
+        <v>4.15</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>45536</v>
+        <v>45566</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>35.33</v>
+        <v>35.48</v>
       </c>
       <c r="C11" t="n">
-        <v>3.94</v>
+        <v>4.14</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>45505</v>
+        <v>45536</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>35.23</v>
+        <v>35.33</v>
       </c>
       <c r="C12" t="n">
-        <v>3.95</v>
+        <v>3.94</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>45474</v>
+        <v>45505</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>35.07</v>
+        <v>35.23</v>
       </c>
       <c r="C13" t="n">
-        <v>3.63</v>
+        <v>3.95</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>45444</v>
+        <v>45474</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>35</v>
+        <v>35.07</v>
       </c>
       <c r="C14" t="n">
-        <v>3.89</v>
+        <v>3.63</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>45413</v>
+        <v>45444</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>34.89</v>
+        <v>35</v>
       </c>
       <c r="C15" t="n">
-        <v>4.09</v>
+        <v>3.89</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>45383</v>
+        <v>45413</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>34.75</v>
-      </c>
-      <c r="C16" t="inlineStr"/>
+        <v>34.89</v>
+      </c>
+      <c r="C16" t="n">
+        <v>4.09</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>45352</v>
+        <v>45383</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>34.67</v>
+        <v>34.75</v>
       </c>
       <c r="C17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>45323</v>
+        <v>45352</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>34.54</v>
+        <v>34.67</v>
       </c>
       <c r="C18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>45292</v>
+        <v>45323</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>34.47</v>
+        <v>34.54</v>
       </c>
       <c r="C19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>45261</v>
+        <v>45292</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>34.31</v>
+        <v>34.47</v>
       </c>
       <c r="C20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>45231</v>
+        <v>45261</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>34.19</v>
+        <v>34.31</v>
       </c>
       <c r="C21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>45200</v>
+        <v>45231</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>34.07</v>
+        <v>34.19</v>
       </c>
       <c r="C22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>45170</v>
+        <v>45200</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>33.99</v>
+        <v>34.07</v>
       </c>
       <c r="C23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>45139</v>
+        <v>45170</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>33.89</v>
+        <v>33.99</v>
       </c>
       <c r="C24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>45108</v>
+        <v>45139</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>33.84</v>
+        <v>33.89</v>
       </c>
       <c r="C25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>45078</v>
+        <v>45108</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>33.69</v>
+        <v>33.84</v>
       </c>
       <c r="C26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
+        <v>45078</v>
+      </c>
+      <c r="B27" s="2" t="n">
+        <v>33.69</v>
+      </c>
+      <c r="C27" t="inlineStr"/>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
         <v>45047</v>
       </c>
-      <c r="B27" s="2" t="n">
+      <c r="B28" s="2" t="n">
         <v>33.52</v>
       </c>
-      <c r="C27" t="inlineStr"/>
+      <c r="C28" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/wages.xlsx
+++ b/data/wages.xlsx
@@ -450,7 +450,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C28"/>
+  <dimension ref="A1:C29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -481,281 +481,294 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2025-07-01</t>
+          <t>2025-08-01</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>36.44</v>
+        <v>36.53</v>
       </c>
       <c r="C2" t="n">
-        <v>3.91</v>
+        <v>3.69</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2025-06-01</t>
+          <t>2025-07-01</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>36.3</v>
+        <v>36.44</v>
       </c>
       <c r="C3" t="n">
-        <v>3.71</v>
+        <v>3.91</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
+          <t>2025-06-01</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>36.3</v>
+      </c>
+      <c r="C4" t="n">
+        <v>3.71</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
           <t>2025-05-01</t>
         </is>
       </c>
-      <c r="B4" t="n">
+      <c r="B5" t="n">
         <v>36.24</v>
       </c>
-      <c r="C4" t="n">
+      <c r="C5" t="n">
         <v>3.87</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>45748</v>
-      </c>
-      <c r="B5" s="2" t="n">
-        <v>36.09</v>
-      </c>
-      <c r="C5" t="n">
-        <v>3.86</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>45717</v>
+        <v>45748</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>36.02</v>
+        <v>36.09</v>
       </c>
       <c r="C6" t="n">
-        <v>3.89</v>
+        <v>3.86</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>45689</v>
+        <v>45717</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>35.9</v>
+        <v>36.02</v>
       </c>
       <c r="C7" t="n">
-        <v>3.94</v>
+        <v>3.89</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>45658</v>
+        <v>45689</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>35.83</v>
+        <v>35.9</v>
       </c>
       <c r="C8" t="n">
-        <v>3.95</v>
+        <v>3.94</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>45627</v>
+        <v>45658</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>35.68</v>
+        <v>35.83</v>
       </c>
       <c r="C9" t="n">
-        <v>3.99</v>
+        <v>3.95</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>45597</v>
+        <v>45627</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>35.61</v>
+        <v>35.68</v>
       </c>
       <c r="C10" t="n">
-        <v>4.15</v>
+        <v>3.99</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>45566</v>
+        <v>45597</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>35.48</v>
+        <v>35.61</v>
       </c>
       <c r="C11" t="n">
-        <v>4.14</v>
+        <v>4.15</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>45536</v>
+        <v>45566</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>35.33</v>
+        <v>35.48</v>
       </c>
       <c r="C12" t="n">
-        <v>3.94</v>
+        <v>4.14</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>45505</v>
+        <v>45536</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>35.23</v>
+        <v>35.33</v>
       </c>
       <c r="C13" t="n">
-        <v>3.95</v>
+        <v>3.94</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>45474</v>
+        <v>45505</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>35.07</v>
+        <v>35.23</v>
       </c>
       <c r="C14" t="n">
-        <v>3.63</v>
+        <v>3.95</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>45444</v>
+        <v>45474</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>35</v>
+        <v>35.07</v>
       </c>
       <c r="C15" t="n">
-        <v>3.89</v>
+        <v>3.63</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>45413</v>
+        <v>45444</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>34.89</v>
+        <v>35</v>
       </c>
       <c r="C16" t="n">
-        <v>4.09</v>
+        <v>3.89</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>45383</v>
+        <v>45413</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>34.75</v>
-      </c>
-      <c r="C17" t="inlineStr"/>
+        <v>34.89</v>
+      </c>
+      <c r="C17" t="n">
+        <v>4.09</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>45352</v>
+        <v>45383</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>34.67</v>
+        <v>34.75</v>
       </c>
       <c r="C18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>45323</v>
+        <v>45352</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>34.54</v>
+        <v>34.67</v>
       </c>
       <c r="C19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>45292</v>
+        <v>45323</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>34.47</v>
+        <v>34.54</v>
       </c>
       <c r="C20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>45261</v>
+        <v>45292</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>34.31</v>
+        <v>34.47</v>
       </c>
       <c r="C21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>45231</v>
+        <v>45261</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>34.19</v>
+        <v>34.31</v>
       </c>
       <c r="C22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>45200</v>
+        <v>45231</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>34.07</v>
+        <v>34.19</v>
       </c>
       <c r="C23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>45170</v>
+        <v>45200</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>33.99</v>
+        <v>34.07</v>
       </c>
       <c r="C24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>45139</v>
+        <v>45170</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>33.89</v>
+        <v>33.99</v>
       </c>
       <c r="C25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>45108</v>
+        <v>45139</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>33.84</v>
+        <v>33.89</v>
       </c>
       <c r="C26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
-        <v>45078</v>
+        <v>45108</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>33.69</v>
+        <v>33.84</v>
       </c>
       <c r="C27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
+        <v>45078</v>
+      </c>
+      <c r="B28" s="2" t="n">
+        <v>33.69</v>
+      </c>
+      <c r="C28" t="inlineStr"/>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
         <v>45047</v>
       </c>
-      <c r="B28" s="2" t="n">
+      <c r="B29" s="2" t="n">
         <v>33.52</v>
       </c>
-      <c r="C28" t="inlineStr"/>
+      <c r="C29" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
